--- a/LaboUni/rsrc/translate.xlsx
+++ b/LaboUni/rsrc/translate.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michu\git\Workspace\LaboUni\rsrc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7020" windowHeight="3255"/>
   </bookViews>
@@ -10,7 +15,6 @@
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="83">
   <si>
     <t>Polski</t>
   </si>
@@ -37,12 +41,6 @@
     <t>UserPanel</t>
   </si>
   <si>
-    <t>component</t>
-  </si>
-  <si>
-    <t>panel</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -67,37 +65,214 @@
     <t>label5</t>
   </si>
   <si>
-    <t>Język</t>
-  </si>
-  <si>
-    <t>Serwer</t>
-  </si>
-  <si>
-    <t>Użytkownik</t>
-  </si>
-  <si>
-    <t>Hasło</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Server</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Kennwort</t>
-  </si>
-  <si>
-    <t>Benutzer</t>
-  </si>
-  <si>
-    <t>Sprache</t>
+    <t>Język:</t>
+  </si>
+  <si>
+    <t>Serwer:</t>
+  </si>
+  <si>
+    <t>Użytkownik:</t>
+  </si>
+  <si>
+    <t>Hasło:</t>
+  </si>
+  <si>
+    <t>Language:</t>
+  </si>
+  <si>
+    <t>Server:</t>
+  </si>
+  <si>
+    <t>User:</t>
+  </si>
+  <si>
+    <t>Password:</t>
+  </si>
+  <si>
+    <t>Sprache:</t>
+  </si>
+  <si>
+    <t>Benutzer:</t>
+  </si>
+  <si>
+    <t>Kennwort:</t>
+  </si>
+  <si>
+    <t>MixInfo</t>
+  </si>
+  <si>
+    <t>Informacje o mieszance</t>
+  </si>
+  <si>
+    <t>label3</t>
+  </si>
+  <si>
+    <t>Receptura:</t>
+  </si>
+  <si>
+    <t>Typ:</t>
+  </si>
+  <si>
+    <t>Opis:</t>
+  </si>
+  <si>
+    <t>MixParameters</t>
+  </si>
+  <si>
+    <t>Parametry</t>
+  </si>
+  <si>
+    <t>Twardość [Shore A]:</t>
+  </si>
+  <si>
+    <t>MH [dNm]:</t>
+  </si>
+  <si>
+    <t>ML [dNm]:</t>
+  </si>
+  <si>
+    <t>label7</t>
+  </si>
+  <si>
+    <t>MH-ML [dNm]:</t>
+  </si>
+  <si>
+    <t>label9</t>
+  </si>
+  <si>
+    <t>label11</t>
+  </si>
+  <si>
+    <t>label13</t>
+  </si>
+  <si>
+    <t>label15</t>
+  </si>
+  <si>
+    <t>label17</t>
+  </si>
+  <si>
+    <t>label19</t>
+  </si>
+  <si>
+    <t>label21</t>
+  </si>
+  <si>
+    <t>label23</t>
+  </si>
+  <si>
+    <t>label25</t>
+  </si>
+  <si>
+    <t>label27</t>
+  </si>
+  <si>
+    <t>label29</t>
+  </si>
+  <si>
+    <t>label31</t>
+  </si>
+  <si>
+    <t>label33</t>
+  </si>
+  <si>
+    <t>label35</t>
+  </si>
+  <si>
+    <t>Czas podwulkanizacji [min]:</t>
+  </si>
+  <si>
+    <t>Czasa wulkanizacji [min]:</t>
+  </si>
+  <si>
+    <t>&lt;html&gt;Mooney [ML (1+4)100&lt;sup&gt;0&lt;/sup&gt;C]:&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>&lt;html&gt;Mooney [ML (2+4)125&lt;sup&gt;0&lt;/sup&gt;C]:&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>Starzenie [~]:</t>
+  </si>
+  <si>
+    <t>Wytrzymałość na Ściskanie [~]:</t>
+  </si>
+  <si>
+    <t>Olejoodporność [~]:</t>
+  </si>
+  <si>
+    <t>Zawartość popiołu [%]:</t>
+  </si>
+  <si>
+    <t>Przewodniość [mV]:</t>
+  </si>
+  <si>
+    <t>&lt;html&gt;Ścieralność [cm&lt;sup&gt;3&lt;/sup&gt;]:&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>Odbojność [%]</t>
+  </si>
+  <si>
+    <t>Wydłużenie [%]:</t>
+  </si>
+  <si>
+    <t>Rozciąganie [MPa]:</t>
+  </si>
+  <si>
+    <t>&lt;html&gt;Gęstość [g/cm&lt;sup&gt;3&lt;/sup&gt;]:&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>MixShiftInfoPanel</t>
+  </si>
+  <si>
+    <t>Informacje o zmianie</t>
+  </si>
+  <si>
+    <t>Data:</t>
+  </si>
+  <si>
+    <t>Zmiana:</t>
+  </si>
+  <si>
+    <t>Namiar:</t>
+  </si>
+  <si>
+    <t>Mikser:</t>
+  </si>
+  <si>
+    <t>MainFrame</t>
+  </si>
+  <si>
+    <t>LaboUNI 2.0</t>
+  </si>
+  <si>
+    <t>item1</t>
+  </si>
+  <si>
+    <t>Mieszanki</t>
+  </si>
+  <si>
+    <t>item2</t>
+  </si>
+  <si>
+    <t>Granulaty</t>
+  </si>
+  <si>
+    <t>item2_1</t>
+  </si>
+  <si>
+    <t>item3</t>
+  </si>
+  <si>
+    <t>Ustawienia</t>
+  </si>
+  <si>
+    <t>Dodaj nowy granulat - NEW</t>
+  </si>
+  <si>
+    <t>MixConditionInternalFrame</t>
+  </si>
+  <si>
+    <t>Nowa mieszanka - NEW</t>
   </si>
 </sst>
 </file>
@@ -114,15 +289,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -130,12 +311,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -450,124 +649,602 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
+      <c r="C39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LaboUni/rsrc/translate.xlsx
+++ b/LaboUni/rsrc/translate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="89">
   <si>
     <t>Polski</t>
   </si>
@@ -257,22 +257,40 @@
     <t>Granulaty</t>
   </si>
   <si>
-    <t>item2_1</t>
-  </si>
-  <si>
     <t>item3</t>
   </si>
   <si>
     <t>Ustawienia</t>
   </si>
   <si>
-    <t>Dodaj nowy granulat - NEW</t>
-  </si>
-  <si>
     <t>MixConditionInternalFrame</t>
   </si>
   <si>
     <t>Nowa mieszanka - NEW</t>
+  </si>
+  <si>
+    <t>item1_1</t>
+  </si>
+  <si>
+    <t>Dodaj nową mieszankę</t>
+  </si>
+  <si>
+    <t>item4</t>
+  </si>
+  <si>
+    <t>Pomoc</t>
+  </si>
+  <si>
+    <t>item4_1</t>
+  </si>
+  <si>
+    <t>O programie</t>
+  </si>
+  <si>
+    <t>AboutPanel</t>
+  </si>
+  <si>
+    <t>Program Labo Uni 2.0. Aplikacja stworzona na potrzeby firmy Unirubber S.P. Z.O.O</t>
   </si>
 </sst>
 </file>
@@ -330,11 +348,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -649,17 +670,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
   </cols>
@@ -725,10 +746,10 @@
         <v>71</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -738,63 +759,55 @@
         <v>71</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
+      <c r="A7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
+      <c r="A8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -802,16 +815,16 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -819,53 +832,61 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -875,36 +896,36 @@
         <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -914,10 +935,10 @@
         <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -927,10 +948,10 @@
         <v>30</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -940,10 +961,10 @@
         <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -953,10 +974,10 @@
         <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -966,10 +987,10 @@
         <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -979,10 +1000,10 @@
         <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -992,10 +1013,10 @@
         <v>30</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1005,10 +1026,10 @@
         <v>30</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1018,10 +1039,10 @@
         <v>30</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1031,10 +1052,10 @@
         <v>30</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1044,10 +1065,10 @@
         <v>30</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1057,10 +1078,10 @@
         <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1070,10 +1091,10 @@
         <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1083,10 +1104,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1096,10 +1117,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1109,10 +1130,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1122,36 +1143,36 @@
         <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>9</v>
+        <v>30</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1161,10 +1182,10 @@
         <v>65</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1174,10 +1195,10 @@
         <v>65</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1187,45 +1208,63 @@
         <v>65</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="1"/>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
@@ -1243,6 +1282,20 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/LaboUni/rsrc/translate.xlsx
+++ b/LaboUni/rsrc/translate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="118">
   <si>
     <t>Polski</t>
   </si>
@@ -291,6 +291,93 @@
   </si>
   <si>
     <t>Program Labo Uni 2.0. Aplikacja stworzona na potrzeby firmy Unirubber S.P. Z.O.O</t>
+  </si>
+  <si>
+    <t>item1_2</t>
+  </si>
+  <si>
+    <t>Historia</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Geschichte</t>
+  </si>
+  <si>
+    <t>Mieszanki - Historia</t>
+  </si>
+  <si>
+    <t>MixHistoryInternalFrame</t>
+  </si>
+  <si>
+    <t>arg1_1</t>
+  </si>
+  <si>
+    <t>arg1_2</t>
+  </si>
+  <si>
+    <t>arg1_3</t>
+  </si>
+  <si>
+    <t>MixHistoryTable</t>
+  </si>
+  <si>
+    <t>Nr.</t>
+  </si>
+  <si>
+    <t>Receptura</t>
+  </si>
+  <si>
+    <t>Namiar</t>
+  </si>
+  <si>
+    <t>Opis</t>
+  </si>
+  <si>
+    <t>Wytrzymałość na Ściskanie</t>
+  </si>
+  <si>
+    <t>Zmiana</t>
+  </si>
+  <si>
+    <t>arg1_4</t>
+  </si>
+  <si>
+    <t>arg1_5</t>
+  </si>
+  <si>
+    <t>arg1_6</t>
+  </si>
+  <si>
+    <t>arg1_7</t>
+  </si>
+  <si>
+    <t>arg1_8</t>
+  </si>
+  <si>
+    <t>MixHistoryFilter</t>
+  </si>
+  <si>
+    <t>Od:</t>
+  </si>
+  <si>
+    <t>Do:</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Informacje:</t>
+  </si>
+  <si>
+    <t>Mixes</t>
+  </si>
+  <si>
+    <t>Granules</t>
+  </si>
+  <si>
+    <t>Add new mix</t>
   </si>
 </sst>
 </file>
@@ -307,18 +394,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.89999084444715716"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -348,10 +429,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -670,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,10 +779,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -716,115 +796,121 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>85</v>
+      <c r="B8" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
+      <c r="A9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -832,16 +918,16 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -849,16 +935,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -866,40 +952,44 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -909,10 +999,10 @@
         <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -922,23 +1012,23 @@
         <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -948,10 +1038,10 @@
         <v>30</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -961,10 +1051,10 @@
         <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -974,10 +1064,10 @@
         <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -987,10 +1077,10 @@
         <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1000,10 +1090,10 @@
         <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1013,10 +1103,10 @@
         <v>30</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1026,10 +1116,10 @@
         <v>30</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1039,10 +1129,10 @@
         <v>30</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1052,10 +1142,10 @@
         <v>30</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1065,10 +1155,10 @@
         <v>30</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1078,10 +1168,10 @@
         <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1091,10 +1181,10 @@
         <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1104,10 +1194,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1117,10 +1207,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1130,10 +1220,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1143,10 +1233,10 @@
         <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1156,10 +1246,10 @@
         <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1169,23 +1259,23 @@
         <v>30</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1194,11 +1284,11 @@
       <c r="A38" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>9</v>
+      <c r="B38" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1207,11 +1297,11 @@
       <c r="A39" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>10</v>
+      <c r="B39" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1220,11 +1310,11 @@
       <c r="A40" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>26</v>
+      <c r="B40" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1233,68 +1323,367 @@
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>11</v>
+      <c r="B41" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>5</v>
+        <v>65</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="1"/>
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LaboUni/rsrc/translate.xlsx
+++ b/LaboUni/rsrc/translate.xlsx
@@ -420,8 +420,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -438,7 +447,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -461,11 +470,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -476,11 +494,705 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="68">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -790,10 +1502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,22 +1515,23 @@
     <col min="3" max="3" width="48.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
@@ -834,8 +1547,11 @@
       <c r="E2" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
@@ -849,8 +1565,11 @@
         <v>111</v>
       </c>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="4"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>70</v>
       </c>
@@ -864,8 +1583,11 @@
         <v>112</v>
       </c>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="4"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
@@ -879,8 +1601,11 @@
         <v>113</v>
       </c>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="4"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>70</v>
       </c>
@@ -896,8 +1621,11 @@
       <c r="E6" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="4"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>70</v>
       </c>
@@ -909,8 +1637,11 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="4"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>70</v>
       </c>
@@ -922,8 +1653,11 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="4"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>70</v>
       </c>
@@ -935,8 +1669,11 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="4"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -952,8 +1689,11 @@
       <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -969,8 +1709,11 @@
       <c r="E11" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="4"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
@@ -986,8 +1729,11 @@
       <c r="E12" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="4"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
@@ -1003,8 +1749,11 @@
       <c r="E13" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="4"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -1020,8 +1769,11 @@
       <c r="E14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="4"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -1033,8 +1785,11 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -1046,8 +1801,11 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="4"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -1059,8 +1817,11 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="4"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -1072,8 +1833,11 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="4"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -1085,8 +1849,11 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="4"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
@@ -1098,8 +1865,11 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="4"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
@@ -1115,8 +1885,11 @@
       <c r="E21" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="4"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
@@ -1132,8 +1905,11 @@
       <c r="E22" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="4"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -1149,8 +1925,11 @@
       <c r="E23" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -1162,8 +1941,11 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="4"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -1175,8 +1957,11 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="4"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
@@ -1188,8 +1973,11 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="4"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
@@ -1201,8 +1989,11 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="4"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -1214,8 +2005,11 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="6"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -1227,8 +2021,11 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="4"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -1240,8 +2037,11 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="4"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -1253,8 +2053,11 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="4"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
@@ -1266,8 +2069,11 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="4"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
@@ -1279,8 +2085,11 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F33" s="4"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>29</v>
       </c>
@@ -1296,8 +2105,11 @@
       <c r="E34" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F34" s="4"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>29</v>
       </c>
@@ -1313,8 +2125,11 @@
       <c r="E35" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="4"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>29</v>
       </c>
@@ -1326,8 +2141,11 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="6"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>29</v>
       </c>
@@ -1339,8 +2157,11 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="4"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>64</v>
       </c>
@@ -1352,8 +2173,11 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="4"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>64</v>
       </c>
@@ -1365,8 +2189,11 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="4"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>64</v>
       </c>
@@ -1378,8 +2205,11 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="4"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>64</v>
       </c>
@@ -1391,8 +2221,11 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="4"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>64</v>
       </c>
@@ -1404,8 +2237,11 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="6"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>78</v>
       </c>
@@ -1417,8 +2253,11 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F43" s="4"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>86</v>
       </c>
@@ -1430,8 +2269,11 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="4"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>93</v>
       </c>
@@ -1443,8 +2285,11 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" s="4"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>97</v>
       </c>
@@ -1456,8 +2301,11 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="4"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>97</v>
       </c>
@@ -1469,8 +2317,11 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="4"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>97</v>
       </c>
@@ -1482,8 +2333,11 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="4"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>97</v>
       </c>
@@ -1495,8 +2349,11 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="4"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>97</v>
       </c>
@@ -1508,8 +2365,11 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="6"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>97</v>
       </c>
@@ -1521,8 +2381,11 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="6"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>106</v>
       </c>
@@ -1534,8 +2397,11 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="4"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>106</v>
       </c>
@@ -1547,8 +2413,11 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" s="4"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>106</v>
       </c>
@@ -1560,8 +2429,11 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" s="4"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>106</v>
       </c>
@@ -1573,8 +2445,11 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" s="4"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>106</v>
       </c>
@@ -1586,8 +2461,11 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" s="4"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>106</v>
       </c>
@@ -1599,8 +2477,11 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" s="6"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>114</v>
       </c>
@@ -1616,8 +2497,11 @@
       <c r="E58" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" s="4"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>114</v>
       </c>
@@ -1633,8 +2517,11 @@
       <c r="E59" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" s="4"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>114</v>
       </c>
@@ -1650,8 +2537,11 @@
       <c r="E60" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" s="4"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>120</v>
       </c>
@@ -1667,8 +2557,11 @@
       <c r="E61" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" s="4"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>120</v>
       </c>
@@ -1684,8 +2577,11 @@
       <c r="E62" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" s="4"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="5"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>120</v>
       </c>
@@ -1701,8 +2597,11 @@
       <c r="E63" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" s="4"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>121</v>
       </c>
@@ -1718,8 +2617,11 @@
       <c r="E64" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" s="4"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>121</v>
       </c>
@@ -1735,64 +2637,79 @@
       <c r="E65" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" s="6"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" s="4"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="5"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" s="4"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="5"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" s="4"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="5"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" s="4"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="5"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1800,6 +2717,210 @@
       <c r="E74" s="2"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G10:H10">
+    <cfRule type="duplicateValues" dxfId="67" priority="91"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:H11">
+    <cfRule type="duplicateValues" dxfId="66" priority="90"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:H12">
+    <cfRule type="duplicateValues" dxfId="65" priority="89"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:H13">
+    <cfRule type="duplicateValues" dxfId="64" priority="88"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:H14">
+    <cfRule type="duplicateValues" dxfId="63" priority="87"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:H2">
+    <cfRule type="duplicateValues" dxfId="62" priority="86"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:H3">
+    <cfRule type="duplicateValues" dxfId="61" priority="85"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:H4">
+    <cfRule type="duplicateValues" dxfId="60" priority="84"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:H5">
+    <cfRule type="duplicateValues" dxfId="59" priority="83"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:H6">
+    <cfRule type="duplicateValues" dxfId="58" priority="82"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:H7">
+    <cfRule type="duplicateValues" dxfId="57" priority="81"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:H8">
+    <cfRule type="duplicateValues" dxfId="56" priority="80"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:H9">
+    <cfRule type="duplicateValues" dxfId="55" priority="79"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:H23">
+    <cfRule type="duplicateValues" dxfId="54" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:H24">
+    <cfRule type="duplicateValues" dxfId="53" priority="77"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25:H25">
+    <cfRule type="duplicateValues" dxfId="52" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26:H26">
+    <cfRule type="duplicateValues" dxfId="51" priority="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:H27">
+    <cfRule type="duplicateValues" dxfId="50" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:H15">
+    <cfRule type="duplicateValues" dxfId="49" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:H16">
+    <cfRule type="duplicateValues" dxfId="48" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:H17">
+    <cfRule type="duplicateValues" dxfId="47" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:H18">
+    <cfRule type="duplicateValues" dxfId="46" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19:H19">
+    <cfRule type="duplicateValues" dxfId="45" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:H20">
+    <cfRule type="duplicateValues" dxfId="44" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21:H21">
+    <cfRule type="duplicateValues" dxfId="43" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:H22">
+    <cfRule type="duplicateValues" dxfId="42" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41:H41">
+    <cfRule type="duplicateValues" dxfId="41" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36:H36">
+    <cfRule type="duplicateValues" dxfId="40" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G37:H37">
+    <cfRule type="duplicateValues" dxfId="39" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38:H38">
+    <cfRule type="duplicateValues" dxfId="38" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39:H39">
+    <cfRule type="duplicateValues" dxfId="37" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40:H40">
+    <cfRule type="duplicateValues" dxfId="36" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28:H28">
+    <cfRule type="duplicateValues" dxfId="35" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29:H29">
+    <cfRule type="duplicateValues" dxfId="34" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30:H30">
+    <cfRule type="duplicateValues" dxfId="33" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31:H31">
+    <cfRule type="duplicateValues" dxfId="32" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:H32">
+    <cfRule type="duplicateValues" dxfId="31" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33:H33">
+    <cfRule type="duplicateValues" dxfId="30" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34:H34">
+    <cfRule type="duplicateValues" dxfId="29" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35:H35">
+    <cfRule type="duplicateValues" dxfId="28" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50:H50">
+    <cfRule type="duplicateValues" dxfId="27" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G42:H42">
+    <cfRule type="duplicateValues" dxfId="26" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43:H43">
+    <cfRule type="duplicateValues" dxfId="25" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44:H44">
+    <cfRule type="duplicateValues" dxfId="24" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G45:H45">
+    <cfRule type="duplicateValues" dxfId="23" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46:H46">
+    <cfRule type="duplicateValues" dxfId="22" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G47:H47">
+    <cfRule type="duplicateValues" dxfId="21" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G48:H48">
+    <cfRule type="duplicateValues" dxfId="20" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49:H49">
+    <cfRule type="duplicateValues" dxfId="19" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G51:H51">
+    <cfRule type="duplicateValues" dxfId="18" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G52:H52">
+    <cfRule type="duplicateValues" dxfId="17" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G53:H53">
+    <cfRule type="duplicateValues" dxfId="16" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G54:H54">
+    <cfRule type="duplicateValues" dxfId="15" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G55:H55">
+    <cfRule type="duplicateValues" dxfId="14" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G56:H56">
+    <cfRule type="duplicateValues" dxfId="13" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G65:H65">
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66:H66">
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67:H67">
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G68:H68">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G69:H69">
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G57:H57">
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G58:H58">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G59:H59">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G60:H60">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G61:H61">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G62:H62">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G63:H63">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G64:H64">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
